--- a/back-end/剧本信息/故事大纲/outline.xlsx
+++ b/back-end/剧本信息/故事大纲/outline.xlsx
@@ -1,80 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\项目\项目\剧本生成\剧本信息\故事大纲\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8190D7-8052-40A2-A40B-FE0D491B39A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>章节名</t>
   </si>
   <si>
+    <t>故事阶段</t>
+  </si>
+  <si>
     <t>情节梗概</t>
   </si>
   <si>
-    <t>第一章：废土的呼唤</t>
-  </si>
-  <si>
-    <t>故事开始于李钢在他的工作室中，这时赵红带着一个受伤的儿童前来求医。在救治过程中，赵红和李钢意识到他们有着共同的目标。同时，林战在一次战斗中意外救了王铁手，两人达成暂时的合作关系。宋希望的起义军正在集结力量，准备对抗压迫者。</t>
-  </si>
-  <si>
-    <t>第二章：避难所的秘密</t>
-  </si>
-  <si>
-    <t>李钢和赵红决定一起寻找传说中的避难所，那里据说藏有改变废土命运的秘密。林战和王铁手在途中遇到了宋希望的起义军，并决定加入他们的行列。在一次针对强敌的战斗中，林战的勇气和王铁手的智慧帮助他们获得了胜利。</t>
-  </si>
-  <si>
-    <t>第三章：荒野的试炼</t>
-  </si>
-  <si>
-    <t>在前往避难所的路上，李钢和赵红遭遇了各种挑战，包括野生的变种生物和敌对势力的伏击。林战和宋希望在策划一场大型抗议活动时，王铁手利用自己的技术为他们提供了强有力的支持。</t>
-  </si>
-  <si>
-    <t>第四章：真相揭露</t>
-  </si>
-  <si>
-    <t>李钢和赵红终于到达了避难所，并发现了关于辐射清除技术的线索。而林战和宋希望的抗议活动引发了大规模冲突，揭示了避难所内部势力的腐败。王铁手在混乱中发现了自己可以利用的机会。</t>
-  </si>
-  <si>
-    <t>第五章：希望之光</t>
-  </si>
-  <si>
-    <t>在一场决定性的战斗后，宋希望的起义军赢得了胜利，李钢和赵红带着重要的技术信息归来。林战揭露了背叛者的身份，并得到了他应有的惩罚。王铁手在反思自己的行为后，选择支持宋希望的新社区建设。所有人共同努力，开始在这片废土上建立一个新的家园。</t>
+    <t>参与人物</t>
+  </si>
+  <si>
+    <t>祖父的遗物</t>
+  </si>
+  <si>
+    <t>Expositon</t>
+  </si>
+  <si>
+    <t>杰克在整理祖父的遗物时发现了一张古老的藏宝图，激发了他的好奇心和探险欲望。</t>
+  </si>
+  <si>
+    <t>{'角色名字': '杰克'}, {'角色名字': '祖父'}</t>
+  </si>
+  <si>
+    <t>遇见莉莉</t>
+  </si>
+  <si>
+    <t>Inciting Incident</t>
+  </si>
+  <si>
+    <t>杰克在准备寻宝时遇见了同样机智的莉莉，两人决定一起展开寻宝之旅。</t>
+  </si>
+  <si>
+    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}</t>
+  </si>
+  <si>
+    <t>巴克的加入</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>忠诚的小狗巴克加入了杰克和莉莉的队伍，他们一起遇到了第一个难题。</t>
+  </si>
+  <si>
+    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}</t>
+  </si>
+  <si>
+    <t>谜题重重</t>
+  </si>
+  <si>
+    <t>Rising Action</t>
+  </si>
+  <si>
+    <t>寻宝小队在旅途中不断解开各种谜题，困难重重，但他们的友谊和勇气不断增强。</t>
+  </si>
+  <si>
+    <t>发现宝藏</t>
+  </si>
+  <si>
+    <t>Climax</t>
+  </si>
+  <si>
+    <t>经过一系列的冒险和挑战，杰克、莉莉和巴克终于找到了传说中的宝藏。</t>
+  </si>
+  <si>
+    <t>小镇的幸福</t>
+  </si>
+  <si>
+    <t>Falling Action</t>
+  </si>
+  <si>
+    <t>他们用宝藏帮助小镇发展，小镇居民的生活质量得到了极大的提高。</t>
+  </si>
+  <si>
+    <t>{'角色名字': '杰克'}, {'角色名字': '莉莉'}, {'角色名字': '巴克'}, {'角色名字': '小镇居民'}</t>
+  </si>
+  <si>
+    <t>英雄归来</t>
+  </si>
+  <si>
+    <t>Denouement</t>
+  </si>
+  <si>
+    <t>杰克、莉莉和巴克被小镇居民视为英雄，他们的故事被传颂，成为了小镇的传奇。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,23 +140,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,27 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,24 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,67 +431,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>